--- a/APP_DEVELOPER/ssl_cst_order_d.xlsx
+++ b/APP_DEVELOPER/ssl_cst_order_d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="213">
   <si>
     <t>BRN_ID</t>
   </si>
@@ -469,49 +469,64 @@
     <t>000</t>
   </si>
   <si>
-    <t>25040027</t>
-  </si>
-  <si>
-    <t>EB0314108</t>
-  </si>
-  <si>
-    <t>EB0314148</t>
-  </si>
-  <si>
-    <t>EB0314078</t>
-  </si>
-  <si>
-    <t>EB0314079</t>
-  </si>
-  <si>
-    <t>SCET25WAFR8N1</t>
+    <t>25020020</t>
+  </si>
+  <si>
+    <t>0341159</t>
+  </si>
+  <si>
+    <t>0341179</t>
+  </si>
+  <si>
+    <t>0372544</t>
+  </si>
+  <si>
+    <t>0372549</t>
+  </si>
+  <si>
+    <t>SWDT25BUGF1</t>
+  </si>
+  <si>
+    <t>STCT30SOCK1</t>
   </si>
   <si>
     <t>I#009</t>
   </si>
   <si>
-    <t>01500</t>
-  </si>
-  <si>
-    <t>02200</t>
-  </si>
-  <si>
-    <t>01200</t>
-  </si>
-  <si>
-    <t>HL</t>
+    <t>I#014</t>
+  </si>
+  <si>
+    <t>02400</t>
+  </si>
+  <si>
+    <t>03000</t>
+  </si>
+  <si>
+    <t>06000</t>
+  </si>
+  <si>
+    <t>CS18</t>
+  </si>
+  <si>
+    <t>CS19</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>0</t>
+    <t>H</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>MW675</t>
+    <t>R1000A21-4</t>
+  </si>
+  <si>
+    <t>MWX691P</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>N</t>
@@ -520,21 +535,27 @@
     <t>FBTT254</t>
   </si>
   <si>
+    <t>FBTT30WS4</t>
+  </si>
+  <si>
     <t>M-</t>
   </si>
   <si>
-    <t>00270</t>
-  </si>
-  <si>
-    <t>00280</t>
+    <t>00500</t>
+  </si>
+  <si>
+    <t>00510</t>
+  </si>
+  <si>
+    <t>00540</t>
+  </si>
+  <si>
+    <t>CTN</t>
   </si>
   <si>
     <t>BOX</t>
   </si>
   <si>
-    <t>CTN</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -544,73 +565,98 @@
     <t>M</t>
   </si>
   <si>
-    <t>LBS</t>
-  </si>
-  <si>
     <t>MPCS</t>
   </si>
   <si>
-    <t>LBD092H133</t>
-  </si>
-  <si>
-    <t>LBD092H137</t>
-  </si>
-  <si>
-    <t>LBD092H127</t>
-  </si>
-  <si>
-    <t>LBD092H140</t>
-  </si>
-  <si>
-    <t>LBD092H105</t>
-  </si>
-  <si>
-    <t>LBD092H109</t>
-  </si>
-  <si>
-    <t>LBD092H101</t>
+    <t>LBD092M010</t>
+  </si>
+  <si>
+    <t>LBD092M028</t>
+  </si>
+  <si>
+    <t>LBD092B053</t>
+  </si>
+  <si>
+    <t>LBD092MP29</t>
+  </si>
+  <si>
+    <t>LBD092B054</t>
   </si>
   <si>
     <t>D09200</t>
   </si>
   <si>
-    <t>CTAPK307</t>
-  </si>
-  <si>
-    <t>CTAPK308</t>
-  </si>
-  <si>
-    <t>BXPLDBDV60</t>
+    <t>CTPPK112-1</t>
+  </si>
+  <si>
+    <t>CTAPK981AC</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>BXPLDBD002</t>
   </si>
   <si>
     <t>PAIL</t>
   </si>
   <si>
-    <t>PAWAT0023</t>
-  </si>
-  <si>
-    <t>PAWAT0022</t>
+    <t>PAWAT0017</t>
+  </si>
+  <si>
+    <t>PAWAT0018</t>
   </si>
   <si>
     <t>1022A</t>
   </si>
   <si>
+    <t>A10B21</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>D092CE001</t>
+    <t>D092WD002</t>
+  </si>
+  <si>
+    <t>D092TC001</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>訂單項次2</t>
+    <t xml:space="preserve">從SC : 25020017-4移轉
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">從SC : 25020017-5移轉
+</t>
+  </si>
+  <si>
+    <t>從SC : 25020017-4移轉
+依供應商建議，修改製程選項</t>
+  </si>
+  <si>
+    <t>從SC : 25020017-5移轉
+依供應商建議，修改製程選項</t>
   </si>
   <si>
     <t>SP000671</t>
   </si>
   <si>
-    <t>A</t>
+    <t>SP000040</t>
+  </si>
+  <si>
+    <t>S2502-0034</t>
+  </si>
+  <si>
+    <t>S2502-0035</t>
+  </si>
+  <si>
+    <t>S2506-E024AA</t>
+  </si>
+  <si>
+    <t>S2506-E025AA</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1478,7 @@
     </row>
     <row r="2" spans="1:151">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>150</v>
@@ -1441,7 +1487,7 @@
         <v>151</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>152</v>
@@ -1450,300 +1496,282 @@
         <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="N2" t="s">
+        <v>170</v>
       </c>
       <c r="P2" s="2">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="Q2" s="2">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="R2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Z2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AB2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AE2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH2">
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AJ2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AL2">
-        <v>5.6</v>
+        <v>11.2</v>
       </c>
       <c r="AP2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AQ2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AU2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AW2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA2">
+        <v>1.75</v>
+      </c>
+      <c r="BB2">
+        <v>144</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>252</v>
+      </c>
+      <c r="BU2">
+        <v>252</v>
+      </c>
+      <c r="BV2">
+        <v>1184.4</v>
+      </c>
+      <c r="BW2" t="s">
         <v>178</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BX2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BY2">
+        <v>18.69</v>
+      </c>
+      <c r="BZ2">
+        <v>2691.36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB2">
+        <v>3</v>
+      </c>
+      <c r="CC2">
+        <v>314.83</v>
+      </c>
+      <c r="CD2">
+        <v>79337</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO2">
+        <v>4.7</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>202</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>24</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>180</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>248.5</v>
+      </c>
+      <c r="DU2">
+        <v>248.5</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="ED2">
+        <v>10</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>45764.68194444444</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>45700.37726851852</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>207</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>202</v>
+      </c>
+      <c r="EN2">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>209</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2" t="s">
         <v>182</v>
       </c>
-      <c r="AY2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA2">
-        <v>1.12</v>
-      </c>
-      <c r="BB2">
-        <v>1040</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF2">
-        <v>0.14</v>
-      </c>
-      <c r="BG2">
-        <v>8</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ2">
-        <v>8320</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BT2">
-        <v>1164.8</v>
-      </c>
-      <c r="BU2">
-        <v>1164.8</v>
-      </c>
-      <c r="BV2">
-        <v>4391.3</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY2">
-        <v>2.17</v>
-      </c>
-      <c r="BZ2">
-        <v>18054.4</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB2">
-        <v>13</v>
-      </c>
-      <c r="CC2">
-        <v>433.24</v>
-      </c>
-      <c r="CD2">
-        <v>504638</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>173</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>192</v>
-      </c>
-      <c r="CO2">
-        <v>3.77</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>194</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>195</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DH2">
-        <v>25</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>173</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
-      <c r="DT2">
-        <v>0</v>
-      </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DW2">
-        <v>0</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>166</v>
-      </c>
-      <c r="ED2">
-        <v>40</v>
-      </c>
-      <c r="EI2" s="2">
-        <v>45775.35714120371</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>197</v>
-      </c>
-      <c r="EK2" s="2">
-        <v>45775.3553125</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>197</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>198</v>
-      </c>
-      <c r="EN2">
-        <v>2</v>
-      </c>
-      <c r="EO2">
-        <v>1</v>
-      </c>
-      <c r="ER2">
-        <v>0</v>
-      </c>
-      <c r="ES2">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>175</v>
-      </c>
       <c r="EU2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:151">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>150</v>
@@ -1752,7 +1780,7 @@
         <v>151</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>153</v>
@@ -1761,202 +1789,184 @@
         <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="N3" t="s">
+        <v>170</v>
       </c>
       <c r="P3" s="2">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="Q3" s="2">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="R3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Z3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AA3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AE3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH3">
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AJ3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AL3">
-        <v>5.6</v>
+        <v>11.2</v>
       </c>
       <c r="AP3">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AQ3">
+        <v>2</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA3">
+        <v>1.75</v>
+      </c>
+      <c r="BB3">
+        <v>240</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>420</v>
+      </c>
+      <c r="BU3">
+        <v>420</v>
+      </c>
+      <c r="BV3">
+        <v>2394</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BY3">
+        <v>21.83</v>
+      </c>
+      <c r="BZ3">
+        <v>5239.2</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB3">
         <v>5</v>
       </c>
-      <c r="AT3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA3">
-        <v>0.8</v>
-      </c>
-      <c r="BB3">
-        <v>320</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF3">
-        <v>0.1</v>
-      </c>
-      <c r="BG3">
-        <v>8</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ3">
-        <v>2560</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BT3">
-        <v>256</v>
-      </c>
-      <c r="BU3">
-        <v>256</v>
-      </c>
-      <c r="BV3">
-        <v>1287.68</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY3">
-        <v>2.18</v>
-      </c>
-      <c r="BZ3">
-        <v>5580.8</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB3">
-        <v>4</v>
-      </c>
       <c r="CC3">
-        <v>586.15</v>
+        <v>365.95</v>
       </c>
       <c r="CD3">
-        <v>150054</v>
+        <v>153699</v>
       </c>
       <c r="CE3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CL3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CM3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CN3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="CO3">
-        <v>5.03</v>
+        <v>5.7</v>
       </c>
       <c r="CQ3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="CR3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CS3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CT3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CV3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CX3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="CY3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="CZ3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="DB3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -1965,22 +1975,22 @@
         <v>0</v>
       </c>
       <c r="DH3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DL3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="DM3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DN3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DO3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DP3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DQ3">
         <v>0</v>
@@ -1992,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>0</v>
+        <v>407.75</v>
       </c>
       <c r="DU3">
-        <v>0</v>
+        <v>407.75</v>
       </c>
       <c r="DV3">
         <v>0</v>
@@ -2010,35 +2020,35 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="EA3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="ED3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="EI3" s="2">
-        <v>45775.35714120371</v>
+        <v>45764.68194444444</v>
       </c>
       <c r="EJ3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="EK3" s="2">
-        <v>45775.3553125</v>
+        <v>45700.37726851852</v>
       </c>
       <c r="EL3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="EM3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="EN3">
-        <v>2</v>
-      </c>
-      <c r="EO3">
         <v>1</v>
       </c>
+      <c r="EP3" t="s">
+        <v>210</v>
+      </c>
       <c r="ER3">
         <v>0</v>
       </c>
@@ -2046,15 +2056,15 @@
         <v>0</v>
       </c>
       <c r="ET3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="EU3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:151">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>150</v>
@@ -2063,211 +2073,208 @@
         <v>151</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P4" s="2">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="Q4" s="2">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="R4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Z4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AE4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH4">
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AJ4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AL4">
-        <v>5.6</v>
+        <v>16.52</v>
       </c>
       <c r="AP4">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA4">
+        <v>0.2</v>
+      </c>
+      <c r="BB4">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF4">
+        <v>0.05</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ4">
+        <v>504</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT4">
+        <v>25.2</v>
+      </c>
+      <c r="BU4">
+        <v>25.2</v>
+      </c>
+      <c r="BV4">
+        <v>461.16</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY4">
+        <v>11.55</v>
+      </c>
+      <c r="BZ4">
+        <v>5821.2</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB4">
         <v>2</v>
       </c>
-      <c r="AT4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW4" t="s">
+      <c r="CC4">
+        <v>4464.7</v>
+      </c>
+      <c r="CD4">
+        <v>112510</v>
+      </c>
+      <c r="CE4" t="s">
         <v>180</v>
       </c>
-      <c r="AX4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA4">
-        <v>1.48</v>
-      </c>
-      <c r="BB4">
-        <v>240</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF4">
-        <v>0.185</v>
-      </c>
-      <c r="BG4">
-        <v>8</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ4">
-        <v>1920</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BT4">
-        <v>355.2</v>
-      </c>
-      <c r="BU4">
-        <v>355.2</v>
-      </c>
-      <c r="BV4">
-        <v>1101.12</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY4">
-        <v>2.27</v>
-      </c>
-      <c r="BZ4">
-        <v>4358.4</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB4">
-        <v>3</v>
-      </c>
-      <c r="CC4">
-        <v>352.65</v>
-      </c>
-      <c r="CD4">
-        <v>125261</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>173</v>
-      </c>
       <c r="CL4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CM4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CN4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="CO4">
-        <v>3.1</v>
+        <v>18.3</v>
       </c>
       <c r="CQ4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="CR4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CS4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CT4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CV4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CX4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="CY4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CZ4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="DB4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -2275,29 +2282,32 @@
       <c r="DE4">
         <v>0</v>
       </c>
+      <c r="DI4" t="s">
+        <v>203</v>
+      </c>
       <c r="DJ4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="DL4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="DM4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DN4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DO4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DP4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DQ4">
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="DS4">
         <v>0</v>
@@ -2321,32 +2331,35 @@
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="EA4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="ED4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="EI4" s="2">
-        <v>45783.37614583333</v>
+        <v>45785.4587962963</v>
       </c>
       <c r="EJ4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="EK4" s="2">
-        <v>45783.37614583333</v>
+        <v>45784.55284722222</v>
       </c>
       <c r="EL4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="EN4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EO4">
         <v>1</v>
       </c>
+      <c r="EP4" t="s">
+        <v>211</v>
+      </c>
       <c r="EQ4">
         <v>1</v>
       </c>
@@ -2357,12 +2370,12 @@
         <v>0</v>
       </c>
       <c r="ET4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:151">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>150</v>
@@ -2371,193 +2384,190 @@
         <v>151</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P5" s="2">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="Q5" s="2">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="R5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Z5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AE5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AJ5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AL5">
-        <v>11.2</v>
+        <v>27.72</v>
       </c>
       <c r="AP5">
         <v>48</v>
       </c>
       <c r="AQ5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AU5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AW5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AY5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AZ5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BA5">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="BB5">
-        <v>1248</v>
+        <v>1584</v>
       </c>
       <c r="BC5" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="BI5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>31200</v>
+        <v>792</v>
       </c>
       <c r="BU5">
-        <v>4569.29</v>
+        <v>792</v>
       </c>
       <c r="BV5">
-        <v>14164.8</v>
+        <v>14493.6</v>
       </c>
       <c r="BW5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="BX5" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="BY5">
-        <v>36.87</v>
+        <v>78.72</v>
       </c>
       <c r="BZ5">
-        <v>46013.76</v>
+        <v>124692.48</v>
       </c>
       <c r="CA5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CB5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="CC5">
-        <v>258.28</v>
+        <v>3710.3</v>
       </c>
       <c r="CD5">
-        <v>1180156</v>
+        <v>2938558</v>
       </c>
       <c r="CE5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CL5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CM5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CN5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="CO5">
-        <v>3.1</v>
+        <v>18.3</v>
       </c>
       <c r="CQ5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="CR5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CS5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CT5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CV5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CX5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="CY5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CZ5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="DB5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -2565,20 +2575,26 @@
       <c r="DE5">
         <v>0</v>
       </c>
+      <c r="DI5" t="s">
+        <v>204</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>206</v>
+      </c>
       <c r="DL5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="DM5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DN5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DO5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DP5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -2608,28 +2624,31 @@
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="EA5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="ED5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="EI5" s="2">
-        <v>45804.60809027778</v>
+        <v>45786.69351851852</v>
       </c>
       <c r="EJ5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="EK5" s="2">
-        <v>45783.37614583333</v>
+        <v>45784.55284722222</v>
       </c>
       <c r="EL5" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="EN5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>212</v>
       </c>
       <c r="EQ5">
         <v>1</v>
@@ -2641,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="ET5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
